--- a/biology/Médecine/La_Leche_League/La_Leche_League.xlsx
+++ b/biology/Médecine/La_Leche_League/La_Leche_League.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Leche League (LLL) est une association internationale de soutien et d'information à l'allaitement maternel.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Leche League a été créée en 1956 à Franklin Park (Illinois, États-Unis) par sept femmes, Mary White, Marian Tompson, Mary Ann Cahill, Edwina Froehlich, Mary Ann Kerwin, Viola Lennon et Betty Wagner, qui souhaitaient soutenir et informer sur l'allaitement maternel.
 Elle a été créée en réaction au manque d'information disponible de la part du corps médical à cette époque. Après avoir commencé par des réunions et des réponses aux lettres envoyées par courrier, l'association édite le livre L'art de l'Allaitement Maternel, détaillant les problématiques courantes liées à l'allaitement et aux manières de s'occuper des nouveau-nés et des bébés.
@@ -546,7 +560,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">LLL France est une association loi de 1901 à but non lucratif. Cette association est reconnue d'intérêt général. 
 Elle organise tous les 3 ans, une journée de conférences la JIA (Journée Internationale de l'Allaitement), destinées aux professionnels de santé. 
